--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2322.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2322.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.972093858697405</v>
+        <v>1.477185845375061</v>
       </c>
       <c r="B1">
-        <v>2.162680033452315</v>
+        <v>1.662241816520691</v>
       </c>
       <c r="C1">
-        <v>1.156279987417244</v>
+        <v>1.580544710159302</v>
       </c>
       <c r="D1">
-        <v>0.9240937684162227</v>
+        <v>1.501592636108398</v>
       </c>
       <c r="E1">
-        <v>0.8373813191015559</v>
+        <v>1.064018368721008</v>
       </c>
     </row>
   </sheetData>
